--- a/documents/06.测试报告/发布前功能测试报告书.xlsx
+++ b/documents/06.测试报告/发布前功能测试报告书.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\hongtai\documents\06.测试报告\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198D55A2-12E7-4DD0-A229-9ACEEDB76B00}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0DDB25-0558-4C26-95A6-38A0CA92006A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="9555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>大项目</t>
   </si>
@@ -75,6 +75,88 @@
   </si>
   <si>
     <t>陈龙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标牌打印程序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录成功后，如果车间代码在后台修改了，再登录时，会选择不到默认车间，并且再次选车间登录成功后，下次进来还是没有选中默认车间。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>史梓威</t>
+  </si>
+  <si>
+    <t>更换材质</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18E00002A批号下生产了两件HRB500E的产品，然后切换材质到HRB500，结果产品列表里的规格显示不出来了。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换规格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换规格时，会将当前选中的行的规格更改掉，但数据库里又没更新，应该同时在数据库也更新掉。</t>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按时间查询时，会将其他车间的数据也查了出来</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补打</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入其他车间的批号，会将其他车间的数据也查了出来</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>换班</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲班退出后，换乙班人员登录，没有生成换班记录，当前班组还是显示甲班</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量录入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理质量编辑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>原来只输入了两行物理数据（不符合标准的），然后在列表点编辑进入编辑界面，在编辑时，输入了3行物理数据，保存时，第3行没有标红校验。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理质量录入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当该批号没有生产产品时，提示语不应该是“请设置质量指标”，而应该是“该批号下尚未生产产品”</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量数据列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18E00001A 批号下的质量数据中，屈屈比为‘－’，原因应该与输入质量时伸长率输入的是0.0有关</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -367,7 +449,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -452,6 +534,15 @@
     <xf numFmtId="58" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -461,14 +552,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -818,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -873,15 +961,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="5"/>
+      <c r="B2" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G2" s="5"/>
       <c r="H2" s="7"/>
       <c r="I2" s="5"/>
@@ -893,9 +989,13 @@
       <c r="A3" s="25">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="E3" s="6"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -905,13 +1005,17 @@
       <c r="K3" s="27"/>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25">
         <v>3</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="5"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -925,9 +1029,13 @@
       <c r="A5" s="25">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="5"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -941,9 +1049,13 @@
       <c r="A6" s="25">
         <v>5</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="5"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -957,9 +1069,13 @@
       <c r="A7" s="25">
         <v>6</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -969,13 +1085,19 @@
       <c r="K7" s="27"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25">
         <v>7</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -989,9 +1111,13 @@
       <c r="A9" s="25">
         <v>8</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -1001,13 +1127,17 @@
       <c r="K9" s="27"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25">
         <v>9</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1021,7 +1151,7 @@
       <c r="A11" s="25">
         <v>10</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="6"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
@@ -1037,8 +1167,8 @@
       <c r="A12" s="25">
         <v>11</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
       <c r="F12" s="5"/>
@@ -1051,8 +1181,8 @@
     </row>
     <row r="13" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
       <c r="F13" s="5"/>
@@ -1067,8 +1197,8 @@
       <c r="A14" s="25">
         <v>12</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
       <c r="F14" s="5"/>
@@ -1083,8 +1213,8 @@
       <c r="A15" s="25">
         <v>13</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="30"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
       <c r="F15" s="5"/>
@@ -1099,8 +1229,8 @@
       <c r="A16" s="25">
         <v>14</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
       <c r="F16" s="5"/>
@@ -1115,8 +1245,8 @@
       <c r="A17" s="25">
         <v>15</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="30"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
       <c r="F17" s="5"/>
@@ -1131,7 +1261,7 @@
       <c r="A18" s="25">
         <v>16</v>
       </c>
-      <c r="B18" s="32"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
@@ -1150,7 +1280,7 @@
       <c r="A19" s="25">
         <v>17</v>
       </c>
-      <c r="B19" s="33"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
@@ -1319,11 +1449,7 @@
       <c r="L28" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="B2:B19"/>
+  <mergeCells count="2">
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="C16:C17"/>
   </mergeCells>

--- a/documents/06.测试报告/发布前功能测试报告书.xlsx
+++ b/documents/06.测试报告/发布前功能测试报告书.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\hongtai\documents\06.测试报告\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0DDB25-0558-4C26-95A6-38A0CA92006A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07CB5C7-FC7B-45BE-A0DA-63E40C884115}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="9555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>大项目</t>
   </si>
@@ -157,6 +157,33 @@
   </si>
   <si>
     <t>18E00001A 批号下的质量数据中，屈屈比为‘－’，原因应该与输入质量时伸长率输入的是0.0有关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标牌扫码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录状态下扫码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示相关的质保书功能没有合并</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙志培</t>
+  </si>
+  <si>
+    <t>质保书</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>质保书生成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板小数位数最终确认</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -193,7 +220,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +233,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -449,7 +482,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -543,19 +576,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -906,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -990,14 +1035,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="29"/>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="37" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="G3" s="5"/>
       <c r="H3" s="7"/>
       <c r="I3" s="5"/>
@@ -1010,14 +1057,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="29"/>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="37" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="7"/>
       <c r="I4" s="5"/>
@@ -1037,7 +1086,9 @@
         <v>26</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -1050,14 +1101,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="29"/>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="32" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="7"/>
       <c r="I6" s="5"/>
@@ -1070,14 +1123,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="29"/>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="37" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -1092,14 +1147,16 @@
       <c r="B8" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="31" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -1112,14 +1169,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="31" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -1132,14 +1191,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="29"/>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="32" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -1151,11 +1212,19 @@
       <c r="A11" s="25">
         <v>10</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -1167,11 +1236,19 @@
       <c r="A12" s="25">
         <v>11</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="5"/>
+      <c r="B12" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -1182,7 +1259,7 @@
     <row r="13" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25"/>
       <c r="B13" s="29"/>
-      <c r="C13" s="32"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
       <c r="F13" s="5"/>
@@ -1198,7 +1275,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="29"/>
-      <c r="C14" s="32"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
       <c r="F14" s="5"/>
@@ -1214,7 +1291,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="29"/>
-      <c r="C15" s="33"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
       <c r="F15" s="5"/>
@@ -1230,7 +1307,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="29"/>
-      <c r="C16" s="31"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
       <c r="F16" s="5"/>
@@ -1246,7 +1323,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="29"/>
-      <c r="C17" s="33"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
       <c r="F17" s="5"/>
@@ -1449,8 +1526,7 @@
       <c r="L28" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C12:C15"/>
+  <mergeCells count="1">
     <mergeCell ref="C16:C17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/documents/06.测试报告/发布前功能测试报告书.xlsx
+++ b/documents/06.测试报告/发布前功能测试报告书.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\hongtai\documents\06.测试报告\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07CB5C7-FC7B-45BE-A0DA-63E40C884115}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445D204E-2E03-4EEC-83B1-7EF89A6C0859}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="9555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>大项目</t>
   </si>
@@ -183,7 +183,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>模板小数位数最终确认</t>
+    <t>OK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板小数位数最终确认，拉伸试验显示4组数据</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +486,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -582,26 +586,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -951,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1023,8 +1033,12 @@
       <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="7"/>
+      <c r="G2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="37">
+        <v>43390</v>
+      </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="27"/>
@@ -1035,18 +1049,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="29"/>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="34" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="7"/>
+      <c r="G3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="37">
+        <v>43390</v>
+      </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="27"/>
@@ -1057,18 +1075,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="29"/>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="34" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="7"/>
+      <c r="G4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="37">
+        <v>43390</v>
+      </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="27"/>
@@ -1089,8 +1111,12 @@
       <c r="F5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="37">
+        <v>43390</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="27"/>
@@ -1111,8 +1137,12 @@
       <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="7"/>
+      <c r="G6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="37">
+        <v>43390</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="27"/>
@@ -1123,18 +1153,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="29"/>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="34" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="37">
+        <v>43390</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="27"/>
@@ -1212,21 +1246,25 @@
       <c r="A11" s="25">
         <v>10</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="37">
+        <v>43390</v>
+      </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="27"/>
@@ -1236,21 +1274,25 @@
       <c r="A12" s="25">
         <v>11</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>44</v>
+      <c r="D12" s="34" t="s">
+        <v>45</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="37">
+        <v>43390</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="27"/>
@@ -1307,7 +1349,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="29"/>
-      <c r="C16" s="33"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
       <c r="F16" s="5"/>
@@ -1323,7 +1365,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="29"/>
-      <c r="C17" s="34"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
       <c r="F17" s="5"/>
@@ -1530,7 +1572,7 @@
     <mergeCell ref="C16:C17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F28" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$T$18:$T$23</formula1>
     </dataValidation>

--- a/documents/06.测试报告/发布前功能测试报告书.xlsx
+++ b/documents/06.测试报告/发布前功能测试报告书.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\hongtai\documents\06.测试报告\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445D204E-2E03-4EEC-83B1-7EF89A6C0859}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B986625-79E8-4DC3-B05F-DE717C828646}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="9555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
   <si>
     <t>大项目</t>
   </si>
@@ -188,6 +188,22 @@
   </si>
   <si>
     <t>模板小数位数最终确认，拉伸试验显示4组数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询不到数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -961,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:H12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1039,9 +1055,15 @@
       <c r="H2" s="37">
         <v>43390</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="27"/>
+      <c r="I2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="37">
+        <v>43390</v>
+      </c>
       <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1117,10 +1139,18 @@
       <c r="H5" s="37">
         <v>43390</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="15"/>
+      <c r="I5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="37">
+        <v>43390</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25">
@@ -1143,10 +1173,18 @@
       <c r="H6" s="37">
         <v>43390</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="15"/>
+      <c r="I6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="37">
+        <v>43390</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25">
@@ -1169,9 +1207,15 @@
       <c r="H7" s="37">
         <v>43390</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="27"/>
+      <c r="I7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="37">
+        <v>43390</v>
+      </c>
       <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1191,11 +1235,21 @@
       <c r="F8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="27"/>
+      <c r="G8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="37">
+        <v>43390</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="37">
+        <v>43390</v>
+      </c>
       <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1213,11 +1267,21 @@
       <c r="F9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="27"/>
+      <c r="G9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="37">
+        <v>43390</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="37">
+        <v>43390</v>
+      </c>
       <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1235,11 +1299,21 @@
       <c r="F10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="27"/>
+      <c r="G10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="37">
+        <v>43390</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="37">
+        <v>43390</v>
+      </c>
       <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1572,7 +1646,7 @@
     <mergeCell ref="C16:C17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F28" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$T$18:$T$23</formula1>
     </dataValidation>

--- a/documents/06.测试报告/发布前功能测试报告书.xlsx
+++ b/documents/06.测试报告/发布前功能测试报告书.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\hongtai\documents\06.测试报告\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B986625-79E8-4DC3-B05F-DE717C828646}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AFE1C4-EBFD-4ACB-B86D-E3D90565543B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="9555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t>大项目</t>
   </si>
@@ -977,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:L6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -994,7 +994,7 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>14</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25">
         <v>1</v>
       </c>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="L2" s="15"/>
     </row>
-    <row r="3" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25">
         <v>2</v>
       </c>
@@ -1092,7 +1092,7 @@
       <c r="K3" s="27"/>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25">
         <v>3</v>
       </c>
@@ -1118,7 +1118,7 @@
       <c r="K4" s="27"/>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25">
         <v>4</v>
       </c>
@@ -1151,8 +1151,17 @@
       <c r="L5" s="15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="37">
+        <v>43390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25">
         <v>5</v>
       </c>
@@ -1185,8 +1194,17 @@
       <c r="L6" s="15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="37">
+        <v>43390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25">
         <v>6</v>
       </c>
@@ -1218,7 +1236,7 @@
       </c>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25">
         <v>7</v>
       </c>
@@ -1252,7 +1270,7 @@
       </c>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25">
         <v>8</v>
       </c>
@@ -1284,7 +1302,7 @@
       </c>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25">
         <v>9</v>
       </c>
@@ -1316,7 +1334,7 @@
       </c>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25">
         <v>10</v>
       </c>
@@ -1344,7 +1362,7 @@
       <c r="K11" s="27"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25">
         <v>11</v>
       </c>
@@ -1372,7 +1390,7 @@
       <c r="K12" s="27"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25"/>
       <c r="B13" s="29"/>
       <c r="C13" s="31"/>
@@ -1386,7 +1404,7 @@
       <c r="K13" s="27"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25">
         <v>12</v>
       </c>
@@ -1402,7 +1420,7 @@
       <c r="K14" s="27"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25">
         <v>13</v>
       </c>
@@ -1418,7 +1436,7 @@
       <c r="K15" s="27"/>
       <c r="L15" s="16"/>
     </row>
-    <row r="16" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="25">
         <v>14</v>
       </c>
@@ -1647,7 +1665,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F28" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F28 M5:M6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$T$18:$T$23</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I28" xr:uid="{00000000-0002-0000-0000-000001000000}">
